--- a/BY.X BOUTIQUE六月订单.xlsx
+++ b/BY.X BOUTIQUE六月订单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9B5FB0-6E12-408F-83D5-CAE0A496C9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF1815E-9E85-49BA-B33A-0FED92C65DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="拼邮" sheetId="4" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="220">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -995,6 +995,9 @@
 ①：85,000 =500rmb
 ②：39,100 =237rmb‬</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY.X BOUTIQUE 月统计.xlsx</t>
   </si>
 </sst>
 </file>
@@ -4762,10 +4765,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5178,6 +5181,9 @@
     </row>
     <row r="12" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="H13" s="35" t="s">
         <v>88</v>
       </c>
@@ -5192,6 +5198,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="36">
+        <f>SUM(E2:E11)</f>
+        <v>11</v>
+      </c>
       <c r="H14" s="36">
         <f>SUM(H2:H11)</f>
         <v>3931</v>
@@ -5210,6 +5220,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="12:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="54" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
@@ -5218,17 +5233,20 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L17" r:id="rId1" xr:uid="{32EAC329-EB57-4BD2-BCE5-B7B1D7EC88F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3A941E-D598-4E42-B440-38C028C5B32B}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5486,6 +5504,11 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H11" s="45"/>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="54" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5497,12 +5520,13 @@
     <hyperlink ref="K3" location="拼邮!C76" display="拼邮!C76" xr:uid="{1370E162-AD74-43C2-B2E4-4D2B66549709}"/>
     <hyperlink ref="A6" location="拼邮!B91" display="拼邮!B91" xr:uid="{518C583C-352D-448F-9CE3-41C5C06714B3}"/>
     <hyperlink ref="K4" location="拼邮!C95" display="拼邮!C95" xr:uid="{5E07B99B-2E9F-4ACB-AD8C-9CAF815F94FA}"/>
+    <hyperlink ref="O12" r:id="rId1" xr:uid="{989B6C8E-1873-4083-AB9D-F827E38DEBD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
